--- a/URS/DbLayouts/L4-批次作業/BankAuthAct.xlsx
+++ b/URS/DbLayouts/L4-批次作業/BankAuthAct.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37F9DE9-C085-4AAC-8C00-AFD4209C745D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A980D6AA-272B-4455-9A0A-7C3CAA6FBFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -123,22 +123,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>狀態碼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>PostDepCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>AcctSeq</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>帳號碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR2</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -160,10 +148,6 @@
   </si>
   <si>
     <t>CustNo,FacmNo,AuthType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>變更扣款帳號時授權成功才會更新</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -199,10 +183,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Status</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -248,9 +228,6 @@
   </si>
   <si>
     <t>KeyID</t>
-  </si>
-  <si>
-    <t>授權類別</t>
   </si>
   <si>
     <t>郵局存款別</t>
@@ -263,38 +240,73 @@
     <t>facmNoEq</t>
   </si>
   <si>
-    <t>該戶號之第一個扣款帳號為空白，其後依序01起編(郵局用)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">CustNo = , AND RepayAcct = , AND RepayBank = , AND FacmNo &gt;=, AND FacmNo &lt;= </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>findAcctNo</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode:PostDepCode
+存簿：P劃撥：G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>變更扣款帳號時授權成功才會更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>授權類別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>狀態碼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳號碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>該戶號之第一個扣款帳號為空白，其後依序01起編(郵局用)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode:AuthCode
+00.期款 (ACH)
+01.期款 (郵局)
+02.火險 (郵局)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostDepCode</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>空白:未授權
 0:授權成功       授權提回更新      
 1:停止使用       0:授權成功時維護；恢復=&gt;維護回0:授權成功
 2.取消授權       授權提回更新 
-9:已送出授權
-(刪除僅刪除log)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:AuthCode
-01.期款
-02.火險
-(郵局僅到戶號，需當key區別)
-(非郵局為00)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:PostDepCode
-存簿：P劃撥：G</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+8.授權失敗
+9:已送出授權</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findCustNoEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -914,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="122.6640625" defaultRowHeight="16.2"/>
@@ -935,10 +947,10 @@
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -948,7 +960,7 @@
       <c r="A2" s="29"/>
       <c r="B2" s="30"/>
       <c r="C2" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -963,7 +975,7 @@
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>26</v>
@@ -989,7 +1001,7 @@
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1046,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>19</v>
@@ -1063,10 +1075,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>24</v>
@@ -1075,28 +1087,28 @@
         <v>3</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="81">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="64.8">
       <c r="A11" s="19">
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E11" s="23">
         <v>2</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1121,20 +1133,20 @@
         <v>7</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E13" s="23">
         <v>1</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="24" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1142,7 +1154,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>21</v>
@@ -1154,7 +1166,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="97.2">
@@ -1162,10 +1174,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>23</v>
@@ -1174,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1193,26 +1205,29 @@
       <c r="E16" s="19">
         <v>14</v>
       </c>
+      <c r="G16" s="25" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="19">
         <v>11</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E17" s="23">
         <v>2</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1220,13 +1235,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E18" s="23"/>
       <c r="G18" s="27"/>
@@ -1236,13 +1251,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E19" s="23">
         <v>6</v>
@@ -1254,13 +1269,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E20" s="23"/>
       <c r="G20" s="27"/>
@@ -1270,13 +1285,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E21" s="23">
         <v>6</v>
@@ -1301,11 +1316,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1329,32 +1344,43 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
